--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2774.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2774.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.166768525999492</v>
+        <v>1.376852989196777</v>
       </c>
       <c r="B1">
-        <v>2.428016698477498</v>
+        <v>1.654488086700439</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.225682973861694</v>
       </c>
       <c r="D1">
-        <v>2.370591792269705</v>
+        <v>4.998605728149414</v>
       </c>
       <c r="E1">
-        <v>1.230855677288428</v>
+        <v>2.189740896224976</v>
       </c>
     </row>
   </sheetData>
